--- a/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeDetail.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeDetail.xlsx
@@ -5,71 +5,70 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL_SVN\Documents\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8436"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="111">
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>讀取Key條件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他ORDER條件</t>
+  </si>
+  <si>
+    <t>Uni</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>其他ORDER條件</t>
-  </si>
-  <si>
-    <t>Uni</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Index1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FunNm</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForeignKey1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ForeignKey1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>欄位名稱</t>
   </si>
   <si>
@@ -89,363 +88,390 @@
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HlThreeDetail</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>EmpId</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>AreaChiefName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Id3Name</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>TeamChiefName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BranchNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>TeamChiefNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CusBNo,HlCusNo,AmountNo,CaseNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>房貸換算業績網頁查詢檔</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CusBNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HlCusNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>AmountNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>AplAmount</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>IfCal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>TActAmt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>EmpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HlEmpName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitName</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirAppDate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>BiReteNo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TwoYag</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThreeYag</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TwoPay</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThreePay</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitChiefNo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitChiefName</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaChiefNo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id0Name</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpNo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateEmpNo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdateEmpNo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>營業單位別</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款人戶號</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>額度編號</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>已用額度</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>計件代碼</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已計件</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>累計達成金額</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>統一編號</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工姓名</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>部室代號</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>區部代號</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位代號</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>部室中文</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>區部中文</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位中文</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次撥款日</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本利率代碼</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>二階換算業績</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>三階換算業績</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>二階業務報酬</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>三階業務報酬</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>統一編號</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工姓名</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateIdentifier</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>建檔日期時間</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>建檔人員</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後更新日期時間</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後更新人員</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decimal</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DecimalD</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>BrNo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacmNo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalDate</t>
+  </si>
+  <si>
+    <t>CalDate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCalDate</t>
+  </si>
+  <si>
+    <t>CalDate =</t>
+  </si>
+  <si>
+    <t>BrNo,CustNo,FacmNo,CaseNo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptCode</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistCode</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitCode</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>DeptName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BranchName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FirAppDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BiReteNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>TwoYag</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThreeYag</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>TwoPay</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThreePay</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitChiefNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitChiefName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaChiefNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id0Name</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateEmpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastUpdate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>營業單位別</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>借款人戶號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>額度編號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>已用額度</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>計件代碼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否已計件</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累計達成金額</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工代號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>統一編號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工姓名</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>部室代號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>區部代號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位代號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>部室中文</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>區部中文</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位中文</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次撥款日</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本利率代碼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>二階換算業績</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>三階換算業績</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>二階業務報酬</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>三階業務報酬</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>統一編號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工姓名</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateIdentifier</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>建檔日期時間</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>建檔人員</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後更新日期時間</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後更新人員</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Decimal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DecimalD</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HlThreeDetail</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>統一編號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistName</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpName</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>PieceCode</t>
+  </si>
+  <si>
+    <t>CntingCode</t>
+  </si>
+  <si>
+    <t>員工代號(介紹人)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>統一編號(介紹人)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工姓名(介紹人)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>統一編號(單位主管)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工姓名(單位主管)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -529,7 +555,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,6 +565,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,116 +636,151 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1"/>
     <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2 2 2" xfId="4"/>
+    <cellStyle name="一般 2 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1017,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1038,10 +1105,10 @@
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="3" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1066,7 +1133,7 @@
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="12" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1080,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="29"/>
-      <c r="C4" s="12"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
@@ -1091,7 +1158,9 @@
         <v>5</v>
       </c>
       <c r="B5" s="30"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="33" t="s">
+        <v>93</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
@@ -1146,17 +1215,17 @@
       <c r="A9" s="23">
         <v>1</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>30</v>
+      <c r="B9" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="25">
-        <v>2</v>
+        <v>76</v>
+      </c>
+      <c r="E9" s="31">
+        <v>4</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="19"/>
@@ -1165,17 +1234,17 @@
       <c r="A10" s="23">
         <v>2</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>31</v>
+      <c r="B10" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="25">
-        <v>14</v>
+        <v>83</v>
+      </c>
+      <c r="E10" s="31">
+        <v>7</v>
       </c>
       <c r="F10" s="25">
         <v>0</v>
@@ -1185,14 +1254,14 @@
       <c r="A11" s="23">
         <v>3</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>32</v>
+      <c r="B11" s="32" t="s">
+        <v>92</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E11" s="25">
         <v>3</v>
@@ -1204,13 +1273,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E12" s="25">
         <v>14</v>
@@ -1223,14 +1292,14 @@
       <c r="A13" s="23">
         <v>5</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>23</v>
+      <c r="B13" s="38" t="s">
+        <v>104</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E13" s="25">
         <v>1</v>
@@ -1242,14 +1311,14 @@
       <c r="A14" s="23">
         <v>6</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>34</v>
+      <c r="B14" s="39" t="s">
+        <v>105</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E14" s="25">
         <v>1</v>
@@ -1262,13 +1331,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E15" s="25">
         <v>30</v>
@@ -1280,16 +1349,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="25">
-        <v>10</v>
+        <v>76</v>
+      </c>
+      <c r="E16" s="37">
+        <v>6</v>
       </c>
       <c r="F16" s="25"/>
     </row>
@@ -1298,13 +1367,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E17" s="25">
         <v>10</v>
@@ -1317,14 +1386,14 @@
       <c r="A18" s="23">
         <v>10</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>37</v>
+      <c r="B18" s="32" t="s">
+        <v>103</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E18" s="25">
         <v>15</v>
@@ -1337,14 +1406,14 @@
       <c r="A19" s="23">
         <v>11</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>24</v>
+      <c r="B19" s="32" t="s">
+        <v>98</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E19" s="25">
         <v>6</v>
@@ -1357,14 +1426,14 @@
       <c r="A20" s="23">
         <v>12</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>25</v>
+      <c r="B20" s="32" t="s">
+        <v>99</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E20" s="25">
         <v>50</v>
@@ -1377,14 +1446,14 @@
       <c r="A21" s="23">
         <v>13</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>28</v>
+      <c r="B21" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E21" s="25">
         <v>6</v>
@@ -1398,13 +1467,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E22" s="25">
         <v>20</v>
@@ -1417,14 +1486,14 @@
       <c r="A23" s="23">
         <v>15</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>39</v>
+      <c r="B23" s="32" t="s">
+        <v>102</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E23" s="25">
         <v>20</v>
@@ -1438,13 +1507,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E24" s="25">
         <v>20</v>
@@ -1456,13 +1525,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E25" s="25">
         <v>8</v>
@@ -1474,13 +1543,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C26" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>76</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>89</v>
       </c>
       <c r="E26" s="25">
         <v>2</v>
@@ -1492,13 +1561,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E27" s="25">
         <v>14</v>
@@ -1512,13 +1581,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E28" s="25">
         <v>14</v>
@@ -1532,13 +1601,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E29" s="25">
         <v>14</v>
@@ -1552,13 +1621,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E30" s="25">
         <v>14</v>
@@ -1572,13 +1641,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E31" s="25">
         <v>10</v>
@@ -1590,13 +1659,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E32" s="25">
         <v>15</v>
@@ -1608,13 +1677,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E33" s="25">
         <v>10</v>
@@ -1626,13 +1695,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E34" s="25">
         <v>15</v>
@@ -1644,13 +1713,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E35" s="25">
         <v>10</v>
@@ -1662,13 +1731,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E36" s="25">
         <v>15</v>
@@ -1680,13 +1749,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E37" s="25">
         <v>10</v>
@@ -1698,13 +1767,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E38" s="25">
         <v>15</v>
@@ -1716,13 +1785,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E39" s="25">
         <v>10</v>
@@ -1734,13 +1803,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E40" s="25">
         <v>15</v>
@@ -1752,13 +1821,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E41" s="25">
         <v>7</v>
@@ -1769,14 +1838,14 @@
       <c r="A42" s="23">
         <v>34</v>
       </c>
-      <c r="B42" s="26" t="s">
-        <v>54</v>
+      <c r="B42" s="35" t="s">
+        <v>94</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E42" s="25">
         <v>8</v>
@@ -1788,13 +1857,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E43" s="25">
         <v>8</v>
@@ -1806,13 +1875,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E44" s="25">
         <v>6</v>
@@ -1824,13 +1893,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E45" s="25">
         <v>8</v>
@@ -1842,13 +1911,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E46" s="25">
         <v>6</v>
@@ -1864,7 +1933,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1876,7 +1945,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1898,6 +1967,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>96</v>
+      </c>
+    </row>
     <row r="3" spans="1:3">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
@@ -1911,7 +1988,7 @@
       <c r="A5" s="24"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeDetail.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeDetail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2202530E-EDFB-4D40-A90A-32CDBB6B8C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -388,10 +389,6 @@
     <t>CalDate =</t>
   </si>
   <si>
-    <t>BrNo,CustNo,FacmNo,CaseNo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>DeptCode</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -455,14 +452,18 @@
   </si>
   <si>
     <t>介紹人業績明細檔</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>BrNo,CustNo,FacmNo</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -788,10 +789,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 2 2 2" xfId="4"/>
-    <cellStyle name="一般 2 3" xfId="3"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -882,6 +883,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -917,6 +935,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1092,14 +1127,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="15" customWidth="1"/>
     <col min="2" max="2" width="23.5546875" style="15" customWidth="1"/>
@@ -1110,7 +1145,7 @@
     <col min="8" max="16384" width="21.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
@@ -1119,15 +1154,15 @@
         <v>19</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
       <c r="G1" s="35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="C2" s="7" t="s">
@@ -1140,13 +1175,13 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="32.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="11" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -1155,7 +1190,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
         <v>11</v>
       </c>
@@ -1166,7 +1201,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
@@ -1179,7 +1214,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
         <v>6</v>
       </c>
@@ -1190,7 +1225,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>7</v>
       </c>
@@ -1201,7 +1236,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" s="14" customFormat="1">
+    <row r="8" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1259,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>1</v>
       </c>
@@ -1243,7 +1278,7 @@
       <c r="F9" s="24"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>2</v>
       </c>
@@ -1263,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>3</v>
       </c>
@@ -1281,12 +1316,12 @@
       </c>
       <c r="F11" s="24"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>4</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>48</v>
@@ -1301,12 +1336,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="20" customFormat="1">
+    <row r="13" spans="1:7" s="20" customFormat="1" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>5</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>49</v>
@@ -1320,12 +1355,12 @@
       <c r="F13" s="24"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" s="20" customFormat="1">
+    <row r="14" spans="1:7" s="20" customFormat="1" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="22">
         <v>6</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>50</v>
@@ -1339,7 +1374,7 @@
       <c r="F14" s="24"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
         <v>7</v>
       </c>
@@ -1347,7 +1382,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>73</v>
@@ -1357,7 +1392,7 @@
       </c>
       <c r="F15" s="24"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
         <v>8</v>
       </c>
@@ -1365,7 +1400,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>73</v>
@@ -1375,7 +1410,7 @@
       </c>
       <c r="F16" s="24"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
         <v>9</v>
       </c>
@@ -1383,7 +1418,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>73</v>
@@ -1395,15 +1430,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>10</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>76</v>
@@ -1415,12 +1450,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
         <v>11</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>53</v>
@@ -1435,12 +1470,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
         <v>12</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>54</v>
@@ -1455,12 +1490,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A21" s="22">
         <v>13</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>55</v>
@@ -1475,12 +1510,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
         <v>14</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>56</v>
@@ -1495,12 +1530,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
         <v>15</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>57</v>
@@ -1515,7 +1550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
         <v>16</v>
       </c>
@@ -1533,7 +1568,7 @@
       </c>
       <c r="F24" s="24"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>17</v>
       </c>
@@ -1551,7 +1586,7 @@
       </c>
       <c r="F25" s="24"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
         <v>18</v>
       </c>
@@ -1569,7 +1604,7 @@
       </c>
       <c r="F26" s="24"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
         <v>19</v>
       </c>
@@ -1589,7 +1624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
         <v>20</v>
       </c>
@@ -1609,7 +1644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
         <v>21</v>
       </c>
@@ -1629,7 +1664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A30" s="22">
         <v>22</v>
       </c>
@@ -1649,7 +1684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A31" s="22">
         <v>23</v>
       </c>
@@ -1657,7 +1692,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>84</v>
@@ -1667,7 +1702,7 @@
       </c>
       <c r="F31" s="24"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A32" s="22">
         <v>24</v>
       </c>
@@ -1675,7 +1710,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>76</v>
@@ -1685,7 +1720,7 @@
       </c>
       <c r="F32" s="24"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A33" s="22">
         <v>25</v>
       </c>
@@ -1703,7 +1738,7 @@
       </c>
       <c r="F33" s="24"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A34" s="22">
         <v>26</v>
       </c>
@@ -1721,7 +1756,7 @@
       </c>
       <c r="F34" s="24"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A35" s="22">
         <v>27</v>
       </c>
@@ -1739,7 +1774,7 @@
       </c>
       <c r="F35" s="24"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A36" s="22">
         <v>28</v>
       </c>
@@ -1757,7 +1792,7 @@
       </c>
       <c r="F36" s="24"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A37" s="22">
         <v>29</v>
       </c>
@@ -1775,7 +1810,7 @@
       </c>
       <c r="F37" s="24"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A38" s="22">
         <v>30</v>
       </c>
@@ -1793,7 +1828,7 @@
       </c>
       <c r="F38" s="24"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A39" s="22">
         <v>31</v>
       </c>
@@ -1811,7 +1846,7 @@
       </c>
       <c r="F39" s="24"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A40" s="22">
         <v>32</v>
       </c>
@@ -1829,7 +1864,7 @@
       </c>
       <c r="F40" s="24"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A41" s="22">
         <v>33</v>
       </c>
@@ -1847,7 +1882,7 @@
       </c>
       <c r="F41" s="24"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A42" s="22">
         <v>34</v>
       </c>
@@ -1865,7 +1900,7 @@
       </c>
       <c r="F42" s="24"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A43" s="22">
         <v>35</v>
       </c>
@@ -1883,7 +1918,7 @@
       </c>
       <c r="F43" s="24"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A44" s="22">
         <v>36</v>
       </c>
@@ -1901,7 +1936,7 @@
       </c>
       <c r="F44" s="24"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A45" s="22">
         <v>37</v>
       </c>
@@ -1919,7 +1954,7 @@
       </c>
       <c r="F45" s="24"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A46" s="22">
         <v>38</v>
       </c>
@@ -1953,7 +1988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1961,7 +1996,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="51.21875" style="1" customWidth="1"/>
@@ -1969,7 +2004,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1980,7 +2015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>92</v>
       </c>
@@ -1988,16 +2023,16 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
     </row>
   </sheetData>
